--- a/results/comparaison/GM/diattenuation/mean_normalized.xlsx
+++ b/results/comparaison/GM/diattenuation/mean_normalized.xlsx
@@ -983,412 +983,526 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C3">
+        <v>0.8369549304820454</v>
+      </c>
+      <c r="D3">
+        <v>0.7265393859536602</v>
+      </c>
+      <c r="E3">
         <v>1.052474494796503</v>
       </c>
-      <c r="C3">
+      <c r="H3">
+        <v>1.007831420049356</v>
+      </c>
+      <c r="I3">
+        <v>1.211377399040148</v>
+      </c>
+      <c r="J3">
         <v>0.9592262410130448</v>
       </c>
-      <c r="D3">
-        <v>0.9038718395590092</v>
-      </c>
-      <c r="E3">
-        <v>0.7929921316812869</v>
-      </c>
-      <c r="F3">
+      <c r="K3">
         <v>0.8120917016619452</v>
       </c>
-      <c r="G3">
-        <v>0.7280883433654238</v>
-      </c>
-      <c r="H3">
+      <c r="L3">
+        <v>0.8685835123165364</v>
+      </c>
+      <c r="M3">
+        <v>0.841330837502108</v>
+      </c>
+      <c r="N3">
         <v>0.8945771621592618</v>
       </c>
-      <c r="I3">
+      <c r="O3">
         <v>0.800237821020708</v>
       </c>
-      <c r="L3">
-        <v>0.9500262821322054</v>
-      </c>
-      <c r="N3">
-        <v>1.065592388651283</v>
-      </c>
       <c r="P3">
-        <v>0.8249516531803307</v>
-      </c>
-      <c r="R3">
-        <v>0.8288480925011922</v>
-      </c>
-      <c r="S3">
-        <v>1.025144709762247</v>
+        <v>0.9110343032083142</v>
+      </c>
+      <c r="Q3">
+        <v>1.068175944133702</v>
       </c>
       <c r="T3">
-        <v>0.7510303973570004</v>
+        <v>0.9481680698949642</v>
+      </c>
+      <c r="U3">
+        <v>0.6666647262112085</v>
       </c>
       <c r="V3">
-        <v>0.7243441862800876</v>
-      </c>
-      <c r="X3">
-        <v>1.007831420049356</v>
+        <v>0.7334320007436756</v>
+      </c>
+      <c r="W3">
+        <v>0.8590936064495506</v>
       </c>
       <c r="Y3">
-        <v>0.8626491152580893</v>
+        <v>0.9475693335010663</v>
       </c>
       <c r="Z3">
-        <v>1.211377399040148</v>
-      </c>
-      <c r="AB3">
-        <v>1.174956340683886</v>
+        <v>0.9123122757926285</v>
+      </c>
+      <c r="AA3">
+        <v>1.3311909673185</v>
       </c>
       <c r="AC3">
-        <v>0.9682456115928607</v>
+        <v>1.262296199502022</v>
       </c>
       <c r="AD3">
-        <v>1.325318929247662</v>
-      </c>
-      <c r="AE3">
-        <v>1.054611963620894</v>
+        <v>0.8072229577269594</v>
       </c>
       <c r="AF3">
-        <v>1.199448765045504</v>
+        <v>1.047429445378337</v>
       </c>
       <c r="AG3">
-        <v>0.8508950577356815</v>
-      </c>
-      <c r="AH3">
-        <v>1.245112676398121</v>
+        <v>0.6820339562801736</v>
       </c>
       <c r="AI3">
-        <v>0.7814972386894968</v>
+        <v>0.6515318862080072</v>
       </c>
       <c r="AJ3">
-        <v>0.8466652649356958</v>
+        <v>0.5718998059931586</v>
+      </c>
+      <c r="AK3">
+        <v>0.9449858517221463</v>
       </c>
       <c r="AL3">
-        <v>0.9781910344527692</v>
+        <v>1.260245541766936</v>
+      </c>
+      <c r="AM3">
+        <v>0.7654572396261008</v>
       </c>
       <c r="AN3">
-        <v>1.109159646534897</v>
+        <v>0.7309055534050987</v>
       </c>
       <c r="AO3">
-        <v>1.162797400589379</v>
+        <v>0.7764267438095467</v>
       </c>
       <c r="AP3">
-        <v>1.560952255259502</v>
+        <v>1.084854793275243</v>
       </c>
       <c r="AQ3">
-        <v>1.193954760442404</v>
+        <v>0.8798009188646073</v>
       </c>
       <c r="AR3">
-        <v>0.9055310594381744</v>
+        <v>0.8131501308783859</v>
       </c>
       <c r="AT3">
-        <v>1.064135361690042</v>
+        <v>1.018331189626167</v>
+      </c>
+      <c r="AU3">
+        <v>1.022564164601028</v>
       </c>
       <c r="AV3">
-        <v>1.008437045100038</v>
+        <v>0.7984733179852999</v>
       </c>
       <c r="AW3">
-        <v>0.827691643594178</v>
+        <v>0.906877553072553</v>
       </c>
       <c r="AX3">
-        <v>1.224560007744713</v>
+        <v>0.9595622853902355</v>
       </c>
       <c r="AY3">
-        <v>1.128264693438777</v>
-      </c>
-      <c r="AZ3">
-        <v>1.24120238205825</v>
+        <v>1.032273757725367</v>
       </c>
       <c r="BA3">
-        <v>1.164063153062294</v>
+        <v>1.039471592227329</v>
       </c>
       <c r="BB3">
-        <v>1.116676443199891</v>
+        <v>0.8268860830317618</v>
       </c>
       <c r="BC3">
-        <v>1.186407341513024</v>
+        <v>1.247389099546129</v>
       </c>
       <c r="BD3">
-        <v>0.9657983501108766</v>
+        <v>0.9591808548780245</v>
       </c>
       <c r="BE3">
-        <v>0.9227292513599814</v>
+        <v>1.164332978572998</v>
       </c>
       <c r="BF3">
-        <v>0.9829785931308976</v>
-      </c>
-      <c r="BG3">
-        <v>1.137107960243357</v>
+        <v>0.8903026815568165</v>
       </c>
       <c r="BH3">
-        <v>0.968016761151259</v>
+        <v>0.9583669156282223</v>
       </c>
       <c r="BI3">
-        <v>0.9142094301518241</v>
+        <v>1.228905785144513</v>
       </c>
       <c r="BJ3">
-        <v>0.9694467870013137</v>
+        <v>1.338019472835196</v>
+      </c>
+      <c r="BK3">
+        <v>1.165500920940472</v>
       </c>
       <c r="BL3">
-        <v>0.8131098675220574</v>
-      </c>
-      <c r="BM3">
-        <v>1.077657792194538</v>
+        <v>1.133959345542675</v>
+      </c>
+      <c r="BN3">
+        <v>0.7793835734203431</v>
+      </c>
+      <c r="BO3">
+        <v>0.9741071692129364</v>
+      </c>
+      <c r="BP3">
+        <v>1.066589915836336</v>
       </c>
       <c r="BQ3">
-        <v>0.9549159464857953</v>
+        <v>1.133064561663173</v>
       </c>
       <c r="BR3">
-        <v>1.114293083119277</v>
+        <v>0.9636430801673778</v>
       </c>
       <c r="BS3">
-        <v>1.28174765354855</v>
+        <v>1.240998902305678</v>
       </c>
       <c r="BT3">
-        <v>0.9601094532670843</v>
+        <v>0.8036122753577923</v>
       </c>
       <c r="BU3">
-        <v>1.193088778309344</v>
+        <v>1.230802930481409</v>
       </c>
       <c r="BV3">
-        <v>1.180668621714061</v>
+        <v>1.18296982190019</v>
       </c>
       <c r="BW3">
-        <v>0.952754377832489</v>
+        <v>1.009291123291634</v>
       </c>
       <c r="BX3">
-        <v>1.218197383438375</v>
-      </c>
-      <c r="CA3">
-        <v>1.045322474658999</v>
+        <v>1.109482395112581</v>
+      </c>
+      <c r="BY3">
+        <v>0.8382438091891639</v>
+      </c>
+      <c r="BZ3">
+        <v>0.899461249185273</v>
       </c>
       <c r="CB3">
-        <v>1.042671812205526</v>
+        <v>1.074955925599476</v>
+      </c>
+      <c r="CC3">
+        <v>1.196198296469038</v>
       </c>
       <c r="CD3">
-        <v>0.9898317813707167</v>
+        <v>1.019325139998444</v>
       </c>
       <c r="CE3">
-        <v>0.960451092014855</v>
+        <v>1.100721444804324</v>
       </c>
       <c r="CF3">
-        <v>0.7778064770207305</v>
+        <v>1.027817828808259</v>
+      </c>
+      <c r="CG3">
+        <v>1.018783839011207</v>
       </c>
       <c r="CH3">
-        <v>1.115374861367778</v>
+        <v>0.8959746286400664</v>
+      </c>
+      <c r="CI3">
+        <v>1.355207053042413</v>
       </c>
       <c r="CK3">
-        <v>1.039629440277072</v>
+        <v>0.8549815459634598</v>
+      </c>
+      <c r="CL3">
+        <v>0.8995073804796818</v>
       </c>
       <c r="CM3">
-        <v>0.7864208467503118</v>
+        <v>1.008330082686973</v>
       </c>
       <c r="CN3">
-        <v>0.8814987927838153</v>
+        <v>1.183932507341944</v>
+      </c>
+      <c r="CO3">
+        <v>0.99257255659754</v>
       </c>
       <c r="CP3">
-        <v>0.9858234300970651</v>
+        <v>0.9691451139866935</v>
+      </c>
+      <c r="CQ3">
+        <v>0.8436161400616858</v>
+      </c>
+      <c r="CR3">
+        <v>1.018090958726266</v>
       </c>
       <c r="CS3">
-        <v>1.037097706532438</v>
+        <v>0.8634845539111282</v>
+      </c>
+      <c r="CT3">
+        <v>0.7910521509238546</v>
+      </c>
+      <c r="CU3">
+        <v>1.028033205170332</v>
+      </c>
+      <c r="CV3">
+        <v>0.8480918266258264</v>
+      </c>
+      <c r="CW3">
+        <v>0.8668534627125508</v>
       </c>
     </row>
     <row r="4" spans="1:101">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.145252245316608</v>
+      </c>
       <c r="C4">
+        <v>0.9417753243381901</v>
+      </c>
+      <c r="D4">
+        <v>0.8174887197108347</v>
+      </c>
+      <c r="E4">
+        <v>1.155467839274035</v>
+      </c>
+      <c r="H4">
+        <v>1.029377377703229</v>
+      </c>
+      <c r="I4">
+        <v>1.271260391003899</v>
+      </c>
+      <c r="J4">
         <v>0.9790611467956828</v>
       </c>
-      <c r="D4">
-        <v>1.015209326984547</v>
-      </c>
-      <c r="E4">
-        <v>0.8141641077893113</v>
-      </c>
-      <c r="F4">
+      <c r="K4">
         <v>0.911937860921847</v>
       </c>
-      <c r="H4">
+      <c r="L4">
+        <v>0.8854327151737</v>
+      </c>
+      <c r="M4">
+        <v>0.8322340124460743</v>
+      </c>
+      <c r="N4">
         <v>0.9319523361284835</v>
       </c>
-      <c r="I4">
+      <c r="O4">
         <v>0.9701877419480358</v>
       </c>
-      <c r="L4">
-        <v>0.9733151766991101</v>
-      </c>
-      <c r="N4">
-        <v>1.033207727542533</v>
+      <c r="P4">
+        <v>0.9678737548730166</v>
       </c>
       <c r="Q4">
-        <v>1.107126166907689</v>
-      </c>
-      <c r="R4">
-        <v>0.8949508699897776</v>
-      </c>
-      <c r="S4">
-        <v>1.237420026437406</v>
+        <v>1.036185682249572</v>
       </c>
       <c r="T4">
-        <v>0.8218137074035303</v>
+        <v>0.9835160153397234</v>
+      </c>
+      <c r="U4">
+        <v>0.7234252063028128</v>
       </c>
       <c r="V4">
-        <v>0.8160761104306754</v>
+        <v>0.857761258924745</v>
       </c>
       <c r="W4">
-        <v>1.137805429873415</v>
-      </c>
-      <c r="X4">
-        <v>1.029377377703229</v>
-      </c>
-      <c r="Y4">
-        <v>0.8277072012895511</v>
+        <v>1.019045378054738</v>
+      </c>
+      <c r="Z4">
+        <v>0.923034237151477</v>
+      </c>
+      <c r="AA4">
+        <v>1.292057619926077</v>
       </c>
       <c r="AC4">
-        <v>0.8465844915963943</v>
-      </c>
-      <c r="AE4">
-        <v>1.048770107300683</v>
+        <v>1.482689695669309</v>
+      </c>
+      <c r="AD4">
+        <v>0.9733966393432264</v>
       </c>
       <c r="AF4">
-        <v>1.166547848742689</v>
-      </c>
-      <c r="AH4">
-        <v>1.382164727230646</v>
+        <v>1.05960366256454</v>
+      </c>
+      <c r="AG4">
+        <v>0.7058684818380316</v>
       </c>
       <c r="AI4">
-        <v>0.7494754279523321</v>
+        <v>0.701753826322525</v>
       </c>
       <c r="AJ4">
-        <v>0.9604350759252096</v>
+        <v>0.6544176988330673</v>
+      </c>
+      <c r="AK4">
+        <v>0.8755944546261051</v>
       </c>
       <c r="AL4">
-        <v>0.9291420516366131</v>
+        <v>1.35721490609454</v>
+      </c>
+      <c r="AM4">
+        <v>0.8016231454179364</v>
+      </c>
+      <c r="AN4">
+        <v>0.8019722302360438</v>
       </c>
       <c r="AO4">
-        <v>1.17922490667446</v>
+        <v>0.8779291679693056</v>
       </c>
       <c r="AP4">
-        <v>1.501542772620567</v>
+        <v>1.187269620650262</v>
       </c>
       <c r="AQ4">
-        <v>1.279378386866191</v>
+        <v>0.9917427256067143</v>
       </c>
       <c r="AR4">
-        <v>0.8621506092055801</v>
-      </c>
-      <c r="AS4">
-        <v>1.397322619069717</v>
+        <v>0.8271397438795779</v>
       </c>
       <c r="AT4">
-        <v>1.100340072695756</v>
+        <v>1.047213281543034</v>
+      </c>
+      <c r="AU4">
+        <v>0.950690971450428</v>
       </c>
       <c r="AV4">
-        <v>1.092326192467507</v>
+        <v>0.8259264263119963</v>
       </c>
       <c r="AW4">
-        <v>0.9685700864276443</v>
+        <v>1.095310635191949</v>
       </c>
       <c r="AX4">
-        <v>1.161417122711473</v>
+        <v>0.932135640591282</v>
+      </c>
+      <c r="AY4">
+        <v>1.256326449752367</v>
       </c>
       <c r="AZ4">
-        <v>1.197730682151302</v>
+        <v>0.9194791801309031</v>
       </c>
       <c r="BA4">
-        <v>1.179120924607861</v>
+        <v>1.055096699815244</v>
       </c>
       <c r="BB4">
-        <v>1.134720703931741</v>
+        <v>0.8944979933131557</v>
       </c>
       <c r="BC4">
-        <v>1.23006159515023</v>
+        <v>1.2667772862391</v>
       </c>
       <c r="BD4">
-        <v>1.103777101752486</v>
+        <v>1.008089648801133</v>
       </c>
       <c r="BE4">
-        <v>1.03007045265223</v>
+        <v>1.185782964577575</v>
       </c>
       <c r="BF4">
-        <v>0.959601252278521</v>
-      </c>
-      <c r="BG4">
-        <v>1.210069276995217</v>
+        <v>1.012088403896674</v>
       </c>
       <c r="BH4">
-        <v>1.023563973076954</v>
+        <v>1.095843965239261</v>
       </c>
       <c r="BI4">
-        <v>0.9664105686750074</v>
+        <v>1.17027148823843</v>
       </c>
       <c r="BJ4">
-        <v>1.103103650704535</v>
+        <v>1.317161918154923</v>
+      </c>
+      <c r="BK4">
+        <v>1.251806444315509</v>
       </c>
       <c r="BL4">
-        <v>0.9214855169166939</v>
+        <v>1.115442429811331</v>
       </c>
       <c r="BM4">
-        <v>1.0539868936264</v>
+        <v>1.185236333397517</v>
       </c>
       <c r="BN4">
-        <v>1.123140697438268</v>
+        <v>0.9209322414786091</v>
       </c>
       <c r="BO4">
-        <v>1.280736958469165</v>
+        <v>1.148810267181372</v>
+      </c>
+      <c r="BP4">
+        <v>1.241474102001596</v>
+      </c>
+      <c r="BQ4">
+        <v>1.220876974143435</v>
       </c>
       <c r="BR4">
-        <v>1.121103062499239</v>
+        <v>1.08350082763863</v>
       </c>
       <c r="BS4">
-        <v>1.251584976572076</v>
+        <v>1.235942451724084</v>
+      </c>
+      <c r="BT4">
+        <v>0.8741901735829665</v>
       </c>
       <c r="BU4">
-        <v>1.126704163840715</v>
+        <v>1.370755493416552</v>
+      </c>
+      <c r="BV4">
+        <v>1.228045954975867</v>
+      </c>
+      <c r="BW4">
+        <v>1.158971249762739</v>
       </c>
       <c r="BX4">
-        <v>1.292892169706529</v>
+        <v>1.059223504682546</v>
       </c>
       <c r="BY4">
-        <v>0.8722835565844466</v>
-      </c>
-      <c r="CA4">
-        <v>1.140209510972991</v>
+        <v>0.9265357320233982</v>
+      </c>
+      <c r="BZ4">
+        <v>1.004595267558154</v>
+      </c>
+      <c r="CB4">
+        <v>1.174324816380598</v>
+      </c>
+      <c r="CC4">
+        <v>1.395277773014508</v>
+      </c>
+      <c r="CD4">
+        <v>1.210427612246108</v>
       </c>
       <c r="CE4">
-        <v>1.136890274583397</v>
+        <v>1.238218680446603</v>
       </c>
       <c r="CF4">
-        <v>0.8500458795344905</v>
+        <v>1.162142821625402</v>
+      </c>
+      <c r="CG4">
+        <v>1.106262403376767</v>
       </c>
       <c r="CH4">
-        <v>1.399553028908459</v>
+        <v>0.9987910181645853</v>
       </c>
       <c r="CI4">
-        <v>1.165432679852358</v>
+        <v>1.495515755573828</v>
       </c>
       <c r="CK4">
-        <v>1.15367395530597</v>
+        <v>0.8780870147390835</v>
       </c>
       <c r="CL4">
-        <v>1.307280738405286</v>
+        <v>0.9919938882451954</v>
       </c>
       <c r="CM4">
-        <v>0.8398387850921774</v>
+        <v>1.125662470706239</v>
       </c>
       <c r="CN4">
-        <v>0.9928257711581376</v>
+        <v>1.423382622103974</v>
+      </c>
+      <c r="CO4">
+        <v>1.201202119146411</v>
       </c>
       <c r="CP4">
-        <v>0.9189367101073845</v>
+        <v>1.003121006596413</v>
+      </c>
+      <c r="CQ4">
+        <v>0.8520171114785621</v>
+      </c>
+      <c r="CR4">
+        <v>1.136136954004374</v>
       </c>
       <c r="CS4">
-        <v>1.158985623063921</v>
+        <v>0.9784666923297279</v>
+      </c>
+      <c r="CT4">
+        <v>1.030995903900649</v>
       </c>
       <c r="CU4">
-        <v>0.9121956649257269</v>
+        <v>1.05287156560413</v>
+      </c>
+      <c r="CV4">
+        <v>0.9833156810623619</v>
+      </c>
+      <c r="CW4">
+        <v>0.8520344688919952</v>
       </c>
     </row>
     <row r="5" spans="1:101">
@@ -1396,193 +1510,262 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>1.047289117277435</v>
+      </c>
+      <c r="C5">
+        <v>0.9633201258814862</v>
+      </c>
+      <c r="D5">
+        <v>0.7480447950232285</v>
+      </c>
+      <c r="E5">
         <v>1.217901895114159</v>
       </c>
-      <c r="C5">
+      <c r="H5">
+        <v>1.161846102315708</v>
+      </c>
+      <c r="I5">
+        <v>1.604673818146389</v>
+      </c>
+      <c r="J5">
         <v>0.9805886736685142</v>
       </c>
-      <c r="D5">
-        <v>1.117990834256879</v>
-      </c>
-      <c r="F5">
+      <c r="K5">
         <v>0.9297306529159293</v>
       </c>
-      <c r="G5">
-        <v>0.9557175128971542</v>
-      </c>
-      <c r="H5">
+      <c r="L5">
+        <v>0.9361586015383986</v>
+      </c>
+      <c r="M5">
+        <v>0.8883267206292109</v>
+      </c>
+      <c r="N5">
         <v>0.9502335264742873</v>
       </c>
-      <c r="I5">
+      <c r="O5">
         <v>0.8478475912096481</v>
       </c>
-      <c r="N5">
-        <v>1.124847215727133</v>
-      </c>
-      <c r="O5">
+      <c r="P5">
+        <v>1.02363148452034</v>
+      </c>
+      <c r="Q5">
+        <v>1.128317355015549</v>
+      </c>
+      <c r="R5">
         <v>1.299086275257513</v>
       </c>
-      <c r="S5">
-        <v>1.237584644879284</v>
-      </c>
-      <c r="T5">
-        <v>0.7537459437902742</v>
+      <c r="U5">
+        <v>0.8399900826277092</v>
       </c>
       <c r="V5">
-        <v>0.7603550030364977</v>
+        <v>0.947334512968433</v>
       </c>
       <c r="W5">
-        <v>1.048002244788564</v>
-      </c>
-      <c r="X5">
-        <v>1.161846102315708</v>
-      </c>
-      <c r="Y5">
-        <v>0.9587737086442145</v>
+        <v>0.9806161799554584</v>
       </c>
       <c r="Z5">
-        <v>1.604673818146389</v>
-      </c>
-      <c r="AB5">
-        <v>1.38986429537473</v>
+        <v>0.9752597036312076</v>
+      </c>
+      <c r="AA5">
+        <v>1.363860572627366</v>
       </c>
       <c r="AC5">
-        <v>0.978911753729125</v>
-      </c>
-      <c r="AD5">
-        <v>1.267913987055412</v>
-      </c>
-      <c r="AE5">
-        <v>1.129048743542902</v>
-      </c>
-      <c r="AH5">
-        <v>1.162766564397576</v>
+        <v>1.364910048345731</v>
+      </c>
+      <c r="AF5">
+        <v>1.107436591250481</v>
+      </c>
+      <c r="AG5">
+        <v>0.8219966424338401</v>
       </c>
       <c r="AI5">
-        <v>0.7547829670449042</v>
+        <v>0.7254341398354941</v>
       </c>
       <c r="AJ5">
-        <v>0.9575053362870752</v>
+        <v>0.6604448722866657</v>
+      </c>
+      <c r="AK5">
+        <v>0.9040683534116922</v>
       </c>
       <c r="AL5">
-        <v>0.9632284755127093</v>
-      </c>
-      <c r="AO5">
-        <v>1.170744451056427</v>
+        <v>1.304309648241546</v>
+      </c>
+      <c r="AM5">
+        <v>0.7268913448335919</v>
+      </c>
+      <c r="AN5">
+        <v>0.7314982366452158</v>
       </c>
       <c r="AP5">
-        <v>1.472522256407861</v>
+        <v>1.192168850146781</v>
       </c>
       <c r="AQ5">
-        <v>1.159694024101968</v>
+        <v>1.102794582814881</v>
       </c>
       <c r="AR5">
-        <v>0.7784254302058217</v>
+        <v>0.7832968725866847</v>
       </c>
       <c r="AT5">
-        <v>1.2342361875017</v>
+        <v>1.057474147877038</v>
+      </c>
+      <c r="AU5">
+        <v>1.156338972508297</v>
       </c>
       <c r="AV5">
-        <v>1.130478900426592</v>
+        <v>0.7408812764006413</v>
       </c>
       <c r="AW5">
-        <v>0.9704618080836476</v>
+        <v>1.147556851740531</v>
       </c>
       <c r="AX5">
-        <v>1.298035547897019</v>
+        <v>1.019974640110081</v>
       </c>
       <c r="AY5">
-        <v>1.045652247236651</v>
+        <v>1.384773187576928</v>
       </c>
       <c r="AZ5">
-        <v>1.132487758053576</v>
+        <v>0.8250988354846096</v>
       </c>
       <c r="BA5">
-        <v>1.047829250498346</v>
+        <v>1.059213220633979</v>
       </c>
       <c r="BB5">
-        <v>0.9333011737052124</v>
+        <v>0.8991531401876857</v>
       </c>
       <c r="BC5">
-        <v>1.022210856766646</v>
+        <v>1.117901531043323</v>
       </c>
       <c r="BD5">
-        <v>0.9783101852211125</v>
+        <v>0.8750154588995849</v>
       </c>
       <c r="BE5">
-        <v>0.9719331821796928</v>
+        <v>1.060620250897041</v>
       </c>
       <c r="BF5">
-        <v>1.104055275828736</v>
+        <v>0.9211810816665909</v>
+      </c>
+      <c r="BG5">
+        <v>1.043393453250257</v>
       </c>
       <c r="BH5">
-        <v>1.020799659260521</v>
+        <v>0.9247888903677342</v>
       </c>
       <c r="BI5">
-        <v>0.9316565660114601</v>
+        <v>1.038194184850228</v>
       </c>
       <c r="BJ5">
-        <v>0.9342870506802068</v>
+        <v>1.097686445577187</v>
+      </c>
+      <c r="BK5">
+        <v>1.129370354195947</v>
       </c>
       <c r="BL5">
-        <v>0.9867116259384302</v>
+        <v>0.9419542565980752</v>
+      </c>
+      <c r="BM5">
+        <v>1.087476683848403</v>
+      </c>
+      <c r="BN5">
+        <v>0.7598215575045562</v>
+      </c>
+      <c r="BO5">
+        <v>1.055645544153385</v>
       </c>
       <c r="BP5">
-        <v>0.7708558216831602</v>
+        <v>1.099295779041443</v>
+      </c>
+      <c r="BQ5">
+        <v>1.15801847842074</v>
       </c>
       <c r="BR5">
-        <v>0.9322933412754478</v>
+        <v>0.9050552385383057</v>
       </c>
       <c r="BS5">
-        <v>1.274212666324595</v>
+        <v>1.094633285052231</v>
+      </c>
+      <c r="BT5">
+        <v>0.9433426424485308</v>
       </c>
       <c r="BU5">
-        <v>1.018709563071176</v>
+        <v>1.122130541467614</v>
       </c>
       <c r="BV5">
-        <v>1.189115328999002</v>
+        <v>1.057863759558798</v>
+      </c>
+      <c r="BW5">
+        <v>1.022119233156758</v>
       </c>
       <c r="BX5">
-        <v>1.068128005009571</v>
+        <v>0.9842442660205337</v>
       </c>
       <c r="BY5">
-        <v>0.8182090102375215</v>
-      </c>
-      <c r="CA5">
-        <v>0.9779810726634879</v>
+        <v>1.000104052048759</v>
+      </c>
+      <c r="BZ5">
+        <v>0.8518918533513675</v>
+      </c>
+      <c r="CB5">
+        <v>1.00425003971437</v>
       </c>
       <c r="CC5">
-        <v>0.9387145437741732</v>
+        <v>1.285673071549389</v>
       </c>
       <c r="CD5">
-        <v>1.083646158540245</v>
+        <v>0.9641401440405021</v>
       </c>
       <c r="CE5">
-        <v>0.9134683295910589</v>
+        <v>1.038449983303017</v>
+      </c>
+      <c r="CF5">
+        <v>1.013961782952115</v>
+      </c>
+      <c r="CG5">
+        <v>1.066901139568441</v>
       </c>
       <c r="CH5">
-        <v>1.02439168780034</v>
+        <v>0.9767930838176985</v>
+      </c>
+      <c r="CI5">
+        <v>1.38478379487829</v>
       </c>
       <c r="CK5">
-        <v>1.10593356669274</v>
+        <v>0.8737712336471196</v>
+      </c>
+      <c r="CL5">
+        <v>0.9174038538204571</v>
       </c>
       <c r="CM5">
-        <v>0.9513872798739108</v>
+        <v>1.059440001136978</v>
       </c>
       <c r="CN5">
-        <v>0.9770668218420626</v>
+        <v>1.214359251107695</v>
+      </c>
+      <c r="CO5">
+        <v>1.080065109872453</v>
       </c>
       <c r="CP5">
-        <v>0.9109495588578423</v>
+        <v>0.9673638668243952</v>
+      </c>
+      <c r="CQ5">
+        <v>0.8794592640266047</v>
+      </c>
+      <c r="CR5">
+        <v>1.056655383432511</v>
       </c>
       <c r="CS5">
-        <v>1.041537756036562</v>
+        <v>0.9169359530725629</v>
+      </c>
+      <c r="CT5">
+        <v>0.929061921332654</v>
       </c>
       <c r="CU5">
-        <v>1.000810783810422</v>
+        <v>0.8788423199872551</v>
+      </c>
+      <c r="CV5">
+        <v>1.010171759486682</v>
       </c>
       <c r="CW5">
-        <v>1.04902239543118</v>
+        <v>0.7639634841625882</v>
       </c>
     </row>
     <row r="6" spans="1:101">
@@ -1590,408 +1773,552 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>0.8223196500374753</v>
+      </c>
+      <c r="D6">
+        <v>0.6021392468455657</v>
+      </c>
+      <c r="E6">
         <v>1.021064039004117</v>
       </c>
-      <c r="C6">
+      <c r="F6">
+        <v>1.200999214453848</v>
+      </c>
+      <c r="H6">
+        <v>1.003730690652506</v>
+      </c>
+      <c r="I6">
+        <v>1.701262057768327</v>
+      </c>
+      <c r="J6">
         <v>0.8957280649399812</v>
       </c>
-      <c r="D6">
-        <v>0.8003954827121021</v>
-      </c>
-      <c r="F6">
+      <c r="K6">
         <v>1.006239109702504</v>
       </c>
-      <c r="G6">
-        <v>0.9915287939805036</v>
-      </c>
-      <c r="H6">
+      <c r="L6">
+        <v>0.9045563359957065</v>
+      </c>
+      <c r="M6">
+        <v>0.8149678528416486</v>
+      </c>
+      <c r="N6">
         <v>1.094768325014271</v>
       </c>
-      <c r="I6">
+      <c r="O6">
         <v>0.6960133839129381</v>
       </c>
-      <c r="J6">
-        <v>0.9669355874254766</v>
-      </c>
-      <c r="M6">
-        <v>1.200999214453848</v>
-      </c>
-      <c r="N6">
-        <v>0.783118735848493</v>
+      <c r="P6">
+        <v>0.9710904464025315</v>
       </c>
       <c r="Q6">
-        <v>1.136641743420816</v>
-      </c>
-      <c r="S6">
-        <v>1.08673827939458</v>
-      </c>
-      <c r="T6">
-        <v>0.7916945863875879</v>
+        <v>0.7833445286768801</v>
+      </c>
+      <c r="V6">
+        <v>1.035004849355064</v>
       </c>
       <c r="W6">
-        <v>0.8307333142135079</v>
-      </c>
-      <c r="X6">
-        <v>1.003730690652506</v>
+        <v>0.6849068039739118</v>
       </c>
       <c r="Y6">
-        <v>0.9349073521025285</v>
+        <v>1.000781173835568</v>
+      </c>
+      <c r="Z6">
+        <v>0.9270103183253363</v>
       </c>
       <c r="AA6">
-        <v>1.013948605818819</v>
-      </c>
-      <c r="AB6">
-        <v>1.403868118081594</v>
+        <v>1.667553340434477</v>
       </c>
       <c r="AC6">
-        <v>1.050708821218745</v>
+        <v>1.278785320392839</v>
       </c>
       <c r="AD6">
-        <v>1.323700031177774</v>
+        <v>0.9137157173585965</v>
       </c>
       <c r="AE6">
-        <v>1.083005421766627</v>
+        <v>0.9518256916187471</v>
+      </c>
+      <c r="AF6">
+        <v>1.035966538094935</v>
       </c>
       <c r="AG6">
-        <v>1.011616149560586</v>
+        <v>0.7864170016422732</v>
       </c>
       <c r="AH6">
-        <v>1.16673802004893</v>
+        <v>1.084381754204113</v>
+      </c>
+      <c r="AI6">
+        <v>0.7059879963314636</v>
       </c>
       <c r="AJ6">
-        <v>0.900468106174939</v>
+        <v>0.6732068746173285</v>
       </c>
       <c r="AK6">
-        <v>0.8726143442474036</v>
+        <v>0.9714586614489904</v>
+      </c>
+      <c r="AL6">
+        <v>1.001108829785738</v>
       </c>
       <c r="AM6">
-        <v>1.036015645827903</v>
+        <v>0.7423398487349746</v>
       </c>
       <c r="AN6">
-        <v>1.054686072621694</v>
+        <v>0.8166236146984818</v>
       </c>
       <c r="AO6">
-        <v>1.220755457607974</v>
+        <v>0.83232871370199</v>
       </c>
       <c r="AP6">
-        <v>1.370964712192147</v>
+        <v>1.175394999623796</v>
       </c>
       <c r="AQ6">
-        <v>0.8958902295540668</v>
+        <v>0.9967966443623169</v>
       </c>
       <c r="AR6">
-        <v>0.8672938946665896</v>
+        <v>0.8375618271138685</v>
+      </c>
+      <c r="AS6">
+        <v>1.086981903676946</v>
+      </c>
+      <c r="AT6">
+        <v>1.04293227741415</v>
+      </c>
+      <c r="AU6">
+        <v>1.028575060879209</v>
       </c>
       <c r="AV6">
-        <v>1.056528429692227</v>
+        <v>0.7706925124010103</v>
       </c>
       <c r="AW6">
-        <v>1.567528473862126</v>
+        <v>1.063623240343925</v>
       </c>
       <c r="AX6">
-        <v>1.237059159234373</v>
+        <v>1.051818515329786</v>
+      </c>
+      <c r="AY6">
+        <v>1.114994397028009</v>
+      </c>
+      <c r="AZ6">
+        <v>0.9773291706581334</v>
       </c>
       <c r="BA6">
-        <v>0.9902196903951113</v>
+        <v>1.0275006475533</v>
       </c>
       <c r="BB6">
-        <v>1.028377284993106</v>
+        <v>0.8990421371955837</v>
+      </c>
+      <c r="BC6">
+        <v>1.088801839865595</v>
       </c>
       <c r="BD6">
-        <v>1.060818731323941</v>
+        <v>0.9296251264365288</v>
       </c>
       <c r="BE6">
-        <v>0.9496180415754473</v>
+        <v>1.075957855974925</v>
       </c>
       <c r="BF6">
-        <v>1.064298850616017</v>
+        <v>0.9055719826590556</v>
       </c>
       <c r="BG6">
-        <v>1.100060772551797</v>
+        <v>0.9891179168577232</v>
+      </c>
+      <c r="BH6">
+        <v>1.033344214725382</v>
       </c>
       <c r="BI6">
-        <v>0.9335368767620267</v>
+        <v>1.024656189579111</v>
       </c>
       <c r="BJ6">
-        <v>0.9793905403963086</v>
+        <v>1.215975974512709</v>
+      </c>
+      <c r="BK6">
+        <v>1.105214768737079</v>
       </c>
       <c r="BL6">
-        <v>0.9563274159669781</v>
+        <v>0.9349272597535011</v>
+      </c>
+      <c r="BM6">
+        <v>1.198515953485471</v>
+      </c>
+      <c r="BN6">
+        <v>0.8484690032433302</v>
       </c>
       <c r="BO6">
-        <v>1.115489179807698</v>
+        <v>1.146716184803411</v>
+      </c>
+      <c r="BP6">
+        <v>1.184488004686268</v>
+      </c>
+      <c r="BQ6">
+        <v>1.271385470847789</v>
       </c>
       <c r="BR6">
-        <v>1.114634507306477</v>
+        <v>0.9963383264775313</v>
       </c>
       <c r="BS6">
-        <v>1.350380669133635</v>
+        <v>1.215692532382045</v>
+      </c>
+      <c r="BT6">
+        <v>0.9489339802078145</v>
       </c>
       <c r="BU6">
-        <v>1.092029895023588</v>
+        <v>1.174548175699838</v>
       </c>
       <c r="BV6">
-        <v>1.243953682495394</v>
+        <v>1.048105949735437</v>
+      </c>
+      <c r="BW6">
+        <v>1.012562168649433</v>
       </c>
       <c r="BX6">
-        <v>1.112670476017418</v>
+        <v>1.100589350192735</v>
       </c>
       <c r="BY6">
-        <v>0.8346463044124806</v>
+        <v>1.048692539004427</v>
+      </c>
+      <c r="BZ6">
+        <v>0.8371622918713171</v>
       </c>
       <c r="CA6">
-        <v>1.036540358886945</v>
+        <v>1.101942647227054</v>
+      </c>
+      <c r="CB6">
+        <v>1.132100884847659</v>
       </c>
       <c r="CC6">
-        <v>0.9936871601316251</v>
+        <v>1.372784877695967</v>
       </c>
       <c r="CD6">
-        <v>0.9752190548783152</v>
+        <v>0.9888344133455595</v>
       </c>
       <c r="CE6">
-        <v>1.007838089405509</v>
+        <v>1.126308614348862</v>
       </c>
       <c r="CF6">
-        <v>0.8870440367573947</v>
+        <v>1.063301506243966</v>
+      </c>
+      <c r="CG6">
+        <v>1.231321340321733</v>
       </c>
       <c r="CH6">
-        <v>0.9584092205474849</v>
+        <v>0.9981542186334246</v>
       </c>
       <c r="CI6">
-        <v>1.132211527383685</v>
+        <v>1.283004213792014</v>
       </c>
       <c r="CJ6">
-        <v>0.9077994462046092</v>
+        <v>1.258894046776242</v>
       </c>
       <c r="CK6">
-        <v>1.180897692008718</v>
+        <v>0.9073644150509023</v>
       </c>
       <c r="CL6">
-        <v>1.284733284465412</v>
+        <v>0.91471725514115</v>
       </c>
       <c r="CM6">
-        <v>0.9624940923801411</v>
+        <v>1.175893598896763</v>
       </c>
       <c r="CN6">
-        <v>0.9968341521514082</v>
+        <v>1.282072453291242</v>
+      </c>
+      <c r="CO6">
+        <v>0.9972521122599797</v>
       </c>
       <c r="CP6">
-        <v>1.10948416598406</v>
+        <v>1.061080876365132</v>
       </c>
       <c r="CQ6">
-        <v>1.044607552078411</v>
+        <v>0.9638721517303325</v>
+      </c>
+      <c r="CR6">
+        <v>1.06950330258217</v>
       </c>
       <c r="CS6">
-        <v>1.062233105123874</v>
+        <v>0.9554453124459783</v>
       </c>
       <c r="CT6">
-        <v>1.00431237073821</v>
+        <v>0.9781381264893158</v>
+      </c>
+      <c r="CU6">
+        <v>1.058791392421239</v>
+      </c>
+      <c r="CV6">
+        <v>1.062271355900021</v>
+      </c>
+      <c r="CW6">
+        <v>0.8444065870704482</v>
       </c>
     </row>
     <row r="7" spans="1:101">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="C7">
+        <v>1.014712180034738</v>
+      </c>
+      <c r="D7">
+        <v>0.8188752232312206</v>
+      </c>
+      <c r="E7">
         <v>1.200905883278217</v>
       </c>
-      <c r="C7">
+      <c r="F7">
+        <v>1.20131545033557</v>
+      </c>
+      <c r="H7">
+        <v>1.170970766358205</v>
+      </c>
+      <c r="J7">
         <v>1.085196549066609</v>
       </c>
-      <c r="D7">
-        <v>1.092305235829581</v>
-      </c>
-      <c r="F7">
+      <c r="K7">
         <v>0.9700998548914964</v>
       </c>
-      <c r="G7">
-        <v>1.155158491876979</v>
-      </c>
-      <c r="H7">
+      <c r="L7">
+        <v>1.020537022288509</v>
+      </c>
+      <c r="M7">
+        <v>0.8742684397562714</v>
+      </c>
+      <c r="N7">
         <v>1.03194606283724</v>
       </c>
-      <c r="I7">
+      <c r="O7">
         <v>0.9706787185324267</v>
       </c>
-      <c r="L7">
-        <v>1.17663848025538</v>
-      </c>
-      <c r="N7">
-        <v>1.331322057328747</v>
-      </c>
-      <c r="R7">
-        <v>0.9488361944149439</v>
+      <c r="P7">
+        <v>1.045487076675562</v>
+      </c>
+      <c r="Q7">
+        <v>1.33488268615733</v>
       </c>
       <c r="T7">
-        <v>1.00853253291147</v>
+        <v>0.969528663394032</v>
+      </c>
+      <c r="U7">
+        <v>0.8864680861657883</v>
       </c>
       <c r="V7">
-        <v>0.8283853646393197</v>
-      </c>
-      <c r="X7">
-        <v>1.170970766358205</v>
+        <v>1.16600242939965</v>
+      </c>
+      <c r="W7">
+        <v>1.127907000790676</v>
       </c>
       <c r="Y7">
-        <v>0.9377605868350606</v>
+        <v>1.071380266718771</v>
       </c>
       <c r="Z7">
-        <v>1.93755847188487</v>
+        <v>0.9513934121469502</v>
       </c>
       <c r="AA7">
-        <v>1.287269598672429</v>
+        <v>1.31647834988339</v>
       </c>
       <c r="AC7">
-        <v>0.9497229749440775</v>
-      </c>
-      <c r="AD7">
-        <v>1.300459378288893</v>
+        <v>1.506516492306512</v>
       </c>
       <c r="AE7">
-        <v>1.225015573129929</v>
+        <v>1.030379813965</v>
+      </c>
+      <c r="AF7">
+        <v>1.070273799058075</v>
+      </c>
+      <c r="AG7">
+        <v>0.9122292636068479</v>
       </c>
       <c r="AH7">
-        <v>1.186073384360412</v>
+        <v>1.345079578506806</v>
       </c>
       <c r="AI7">
-        <v>1.099772015525985</v>
+        <v>1.119631866159404</v>
       </c>
       <c r="AJ7">
-        <v>0.9219893294620408</v>
+        <v>0.8070728954045333</v>
       </c>
       <c r="AK7">
-        <v>0.9899296329652183</v>
+        <v>1.051490153377419</v>
       </c>
       <c r="AL7">
-        <v>1.105923860229988</v>
+        <v>1.237999988322394</v>
       </c>
       <c r="AM7">
-        <v>1.440424842093952</v>
+        <v>0.9402616271060045</v>
       </c>
       <c r="AO7">
-        <v>1.457214461060622</v>
+        <v>0.9482176445378053</v>
       </c>
       <c r="AP7">
-        <v>1.369289564158802</v>
+        <v>1.263799112843904</v>
       </c>
       <c r="AQ7">
-        <v>1.142985100845498</v>
+        <v>1.014126283476796</v>
       </c>
       <c r="AR7">
-        <v>0.9762949450252886</v>
+        <v>0.8514841800237339</v>
+      </c>
+      <c r="AS7">
+        <v>1.463608904490992</v>
       </c>
       <c r="AT7">
-        <v>1.109653968150127</v>
+        <v>1.165143416138299</v>
+      </c>
+      <c r="AU7">
+        <v>1.180360178979484</v>
       </c>
       <c r="AV7">
-        <v>1.017368708671388</v>
+        <v>0.97739474151918</v>
       </c>
       <c r="AW7">
-        <v>1.249724831325031</v>
+        <v>1.109922669181223</v>
       </c>
       <c r="AX7">
-        <v>1.72611769158797</v>
+        <v>0.9975903054571501</v>
+      </c>
+      <c r="AY7">
+        <v>1.30632606797279</v>
       </c>
       <c r="AZ7">
-        <v>1.241436957362978</v>
+        <v>1.053711827450218</v>
       </c>
       <c r="BA7">
-        <v>1.18286466079547</v>
+        <v>1.068378511081532</v>
       </c>
       <c r="BB7">
-        <v>1.173813498484617</v>
+        <v>1.01376545943171</v>
       </c>
       <c r="BC7">
-        <v>1.181127814338854</v>
+        <v>1.25949103488794</v>
+      </c>
+      <c r="BD7">
+        <v>1.058656415871013</v>
       </c>
       <c r="BE7">
-        <v>1.049698040848356</v>
+        <v>1.184496239606562</v>
       </c>
       <c r="BF7">
-        <v>1.13346379089574</v>
+        <v>1.064900482191123</v>
       </c>
       <c r="BG7">
-        <v>1.242692901186727</v>
+        <v>1.222246494407546</v>
+      </c>
+      <c r="BH7">
+        <v>1.11829730036694</v>
       </c>
       <c r="BI7">
-        <v>1.073291267022294</v>
+        <v>1.139160085468252</v>
       </c>
       <c r="BJ7">
-        <v>1.071223509464124</v>
+        <v>1.234191177671947</v>
+      </c>
+      <c r="BK7">
+        <v>1.173312333864308</v>
       </c>
       <c r="BL7">
-        <v>0.8337409764724062</v>
+        <v>1.133725721651797</v>
       </c>
       <c r="BM7">
-        <v>1.12483731232403</v>
+        <v>1.431751997471731</v>
+      </c>
+      <c r="BN7">
+        <v>0.909915321798234</v>
+      </c>
+      <c r="BO7">
+        <v>1.035334578280262</v>
+      </c>
+      <c r="BP7">
+        <v>1.347925622771347</v>
+      </c>
+      <c r="BQ7">
+        <v>1.297835787459785</v>
       </c>
       <c r="BR7">
-        <v>1.023256469851403</v>
+        <v>1.05791603951493</v>
       </c>
       <c r="BS7">
-        <v>1.402881162283396</v>
+        <v>1.157332664746937</v>
       </c>
       <c r="BT7">
-        <v>1.082547643307641</v>
+        <v>0.7198345666207995</v>
       </c>
       <c r="BU7">
-        <v>1.142439740521414</v>
+        <v>1.194612539342389</v>
       </c>
       <c r="BV7">
-        <v>1.413743836337702</v>
+        <v>1.20189569632585</v>
       </c>
       <c r="BW7">
-        <v>1.02661292872299</v>
+        <v>1.187149602573899</v>
       </c>
       <c r="BX7">
-        <v>1.226085987933252</v>
-      </c>
-      <c r="CA7">
-        <v>1.083910168687156</v>
+        <v>1.054890130299119</v>
+      </c>
+      <c r="BY7">
+        <v>1.008546932659615</v>
+      </c>
+      <c r="BZ7">
+        <v>1.096778370656571</v>
       </c>
       <c r="CB7">
-        <v>1.182262100185477</v>
+        <v>1.149692987151401</v>
       </c>
       <c r="CC7">
-        <v>0.9581291295924637</v>
+        <v>1.564617783017664</v>
       </c>
       <c r="CD7">
-        <v>1.124854634466889</v>
+        <v>1.163197798518066</v>
       </c>
       <c r="CE7">
-        <v>1.180019827727138</v>
+        <v>1.231843558941921</v>
       </c>
       <c r="CF7">
-        <v>0.9137235036003413</v>
+        <v>1.169548847984809</v>
       </c>
       <c r="CG7">
-        <v>1.17280580450349</v>
+        <v>1.255315254032032</v>
       </c>
       <c r="CH7">
-        <v>1.238534845584405</v>
-      </c>
-      <c r="CJ7">
-        <v>0.9769926035854599</v>
+        <v>1.068543241362546</v>
+      </c>
+      <c r="CI7">
+        <v>1.725352400574754</v>
       </c>
       <c r="CK7">
-        <v>1.270675187315685</v>
+        <v>0.9887680820218298</v>
+      </c>
+      <c r="CL7">
+        <v>1.046690453965234</v>
       </c>
       <c r="CM7">
-        <v>1.037267240544239</v>
+        <v>1.092859665228108</v>
       </c>
       <c r="CN7">
-        <v>1.056176539279693</v>
+        <v>1.389549353196337</v>
+      </c>
+      <c r="CO7">
+        <v>1.080479463162606</v>
       </c>
       <c r="CP7">
-        <v>1.004299573833359</v>
+        <v>1.067584486755243</v>
       </c>
       <c r="CQ7">
-        <v>1.13596648711797</v>
+        <v>1.048812371775296</v>
+      </c>
+      <c r="CR7">
+        <v>1.112050685573243</v>
       </c>
       <c r="CS7">
-        <v>1.11188983265304</v>
+        <v>1.005360076542272</v>
+      </c>
+      <c r="CT7">
+        <v>1.015970801303738</v>
+      </c>
+      <c r="CU7">
+        <v>1.055120864286083</v>
+      </c>
+      <c r="CV7">
+        <v>1.133555684725051</v>
       </c>
       <c r="CW7">
-        <v>1.255709616597121</v>
+        <v>0.8881209498532723</v>
       </c>
     </row>
   </sheetData>
